--- a/data/Farmers_Razlaga atributov in vrednosti_JM.xlsx
+++ b/data/Farmers_Razlaga atributov in vrednosti_JM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmarzi/Nextcloud/EcoEnvAI/IPM Decisions/podatki 1. delavnica/Podatki za analizo/zadnja verzija/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F80A01-6876-FA4D-BD5D-7A5B45475345}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB73079-455E-0347-ACBE-B292097DDEAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12300" yWindow="-23540" windowWidth="25020" windowHeight="23540" xr2:uid="{8581EDCC-A97A-4405-9BDC-8FD8610DAD94}"/>
+    <workbookView xWindow="9360" yWindow="-21140" windowWidth="25520" windowHeight="21140" xr2:uid="{8581EDCC-A97A-4405-9BDC-8FD8610DAD94}"/>
   </bookViews>
   <sheets>
     <sheet name="Razlaga atributov in vrednosti" sheetId="2" r:id="rId1"/>
@@ -117,7 +117,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
             <charset val="1"/>
           </rPr>
@@ -126,12 +126,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-combined values 1 to 3  1,2,3=1; 4=2; 5,6,7=3</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>combined values 1 to 3  1,2,3=1; 4=2; 5,6,7=3</t>
         </r>
       </text>
     </comment>
@@ -167,23 +176,33 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
             <family val="2"/>
-            <charset val="238"/>
+            <charset val="1"/>
           </rPr>
           <t>Jurij:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
             <family val="2"/>
-            <charset val="238"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-No such cases</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>No such cases</t>
         </r>
       </text>
     </comment>
@@ -193,7 +212,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
             <charset val="1"/>
           </rPr>
@@ -202,12 +221,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-numerical</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>numerical</t>
         </r>
       </text>
     </comment>
@@ -217,23 +245,33 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
             <family val="2"/>
-            <charset val="238"/>
+            <charset val="1"/>
           </rPr>
           <t>Jurij:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
             <family val="2"/>
-            <charset val="238"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-subjects in this category may include answer "through advisor" but only in combination with "mobile phone" and/or "PC"</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>subjects in this category may include answer "through advisor" but only in combination with "mobile phone" and/or "PC"</t>
         </r>
       </text>
     </comment>
@@ -243,23 +281,33 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
             <family val="2"/>
-            <charset val="238"/>
+            <charset val="1"/>
           </rPr>
           <t>Jurij:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
             <family val="2"/>
-            <charset val="238"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-subjects in this category may include answer "through advisor" but only in combination with "mobile phone" and/or "PC"</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>subjects in this category may include answer "through advisor" but only in combination with "mobile phone" and/or "PC"</t>
         </r>
       </text>
     </comment>
@@ -269,23 +317,33 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
             <family val="2"/>
-            <charset val="238"/>
+            <charset val="1"/>
           </rPr>
           <t>Jurij:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
             <family val="2"/>
-            <charset val="238"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-(answer to Q17= combinations of answers that include at least one of answers "mobile phone" or "PC")</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>(answer to Q17= combinations of answers that include at least one of answers "mobile phone" or "PC")</t>
         </r>
       </text>
     </comment>
@@ -295,7 +353,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
             <charset val="1"/>
           </rPr>
@@ -304,12 +362,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Values from 1 to 7</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Values from 1 to 7</t>
         </r>
       </text>
     </comment>
@@ -319,7 +386,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
             <charset val="1"/>
           </rPr>
@@ -328,12 +395,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-combined values 1 to 2 1,2,3,4,5=1; 6,7=2</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>combined values 1 to 2 1,2,3,4,5=1; 6,7=2</t>
         </r>
       </text>
     </comment>
@@ -367,7 +443,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
             <charset val="1"/>
           </rPr>
@@ -376,12 +452,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Values from 1 to 7</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Values from 1 to 7</t>
         </r>
       </text>
     </comment>
@@ -439,7 +524,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
             <charset val="1"/>
           </rPr>
@@ -448,12 +533,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Values from 1 to 7</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Values from 1 to 7</t>
         </r>
       </text>
     </comment>
@@ -919,7 +1013,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
             <charset val="1"/>
           </rPr>
@@ -928,12 +1022,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-combined values: 1,2,3,4=1; 5,6=2; 7=3</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>combined values: 1,2,3,4=1; 5,6=2; 7=3</t>
         </r>
       </text>
     </comment>
@@ -2056,7 +2159,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2188,6 +2291,34 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -2373,7 +2504,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -2546,59 +2677,35 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2624,28 +2731,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2656,6 +2778,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2974,11 +3108,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6001F5AB-D50B-4C2F-AFAA-E00F0F0CA81B}">
   <dimension ref="A1:X16378"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D59" sqref="D59"/>
+      <selection pane="bottomRight" activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3000,34 +3134,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="43" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="75" t="s">
         <v>308</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="74" t="s">
         <v>307</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="74" t="s">
         <v>306</v>
       </c>
-      <c r="D1" s="82" t="s">
+      <c r="D1" s="74" t="s">
         <v>305</v>
       </c>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
     </row>
     <row r="2" spans="1:22" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
       <c r="D2" s="41">
         <v>1</v>
       </c>
@@ -3066,7 +3200,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="33" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="96"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="40"/>
       <c r="C3" s="11" t="s">
         <v>362</v>
@@ -3091,7 +3225,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="97">
+      <c r="A4" s="65">
         <v>1</v>
       </c>
       <c r="B4" s="57" t="s">
@@ -3163,10 +3297,10 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="36.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="65">
+      <c r="A6" s="94">
         <v>2</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="85" t="s">
         <v>292</v>
       </c>
       <c r="C6" s="37" t="s">
@@ -3186,8 +3320,8 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="36.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
-      <c r="B7" s="78"/>
+      <c r="A7" s="94"/>
+      <c r="B7" s="86"/>
       <c r="C7" s="13" t="s">
         <v>287</v>
       </c>
@@ -3202,8 +3336,8 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="36.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="65"/>
-      <c r="B8" s="78"/>
+      <c r="A8" s="94"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="13" t="s">
         <v>284</v>
       </c>
@@ -3226,8 +3360,8 @@
       <c r="V8" s="30"/>
     </row>
     <row r="9" spans="1:22" ht="36.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="65"/>
-      <c r="B9" s="78"/>
+      <c r="A9" s="94"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="13" t="s">
         <v>282</v>
       </c>
@@ -3240,8 +3374,8 @@
       <c r="U9" s="35"/>
     </row>
     <row r="10" spans="1:22" ht="36.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="65"/>
-      <c r="B10" s="78"/>
+      <c r="A10" s="94"/>
+      <c r="B10" s="86"/>
       <c r="C10" s="13" t="s">
         <v>281</v>
       </c>
@@ -3253,8 +3387,8 @@
       <c r="U10" s="35"/>
     </row>
     <row r="11" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="65"/>
-      <c r="B11" s="78"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="86"/>
       <c r="C11" s="15" t="s">
         <v>280</v>
       </c>
@@ -3309,10 +3443,10 @@
       <c r="U13" s="35"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="64">
+      <c r="A14" s="66">
         <v>4</v>
       </c>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="67" t="s">
         <v>270</v>
       </c>
       <c r="C14" s="13" t="s">
@@ -3325,8 +3459,8 @@
       <c r="U14" s="34"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="64"/>
-      <c r="B15" s="76"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="67"/>
       <c r="C15" s="13" t="s">
         <v>345</v>
       </c>
@@ -3339,8 +3473,8 @@
       <c r="V15" s="29"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="64"/>
-      <c r="B16" s="76"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="13" t="s">
         <v>344</v>
       </c>
@@ -3349,8 +3483,8 @@
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" s="64"/>
-      <c r="B17" s="76"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="67"/>
       <c r="C17" s="13" t="s">
         <v>343</v>
       </c>
@@ -3363,8 +3497,8 @@
       <c r="H17" s="38"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="64"/>
-      <c r="B18" s="76"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="67"/>
       <c r="C18" s="15" t="s">
         <v>268</v>
       </c>
@@ -3385,10 +3519,10 @@
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="64">
+      <c r="A19" s="66">
         <v>5</v>
       </c>
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="67" t="s">
         <v>247</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -3399,8 +3533,8 @@
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A20" s="64"/>
-      <c r="B20" s="76"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="67"/>
       <c r="C20" s="13" t="s">
         <v>261</v>
       </c>
@@ -3409,8 +3543,8 @@
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A21" s="64"/>
-      <c r="B21" s="76"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="67"/>
       <c r="C21" s="13" t="s">
         <v>260</v>
       </c>
@@ -3419,8 +3553,8 @@
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A22" s="64"/>
-      <c r="B22" s="76"/>
+      <c r="A22" s="66"/>
+      <c r="B22" s="67"/>
       <c r="C22" s="13" t="s">
         <v>259</v>
       </c>
@@ -3429,8 +3563,8 @@
       </c>
     </row>
     <row r="23" spans="1:24" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="64"/>
-      <c r="B23" s="76"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="67"/>
       <c r="C23" s="13" t="s">
         <v>258</v>
       </c>
@@ -3439,8 +3573,8 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="64"/>
-      <c r="B24" s="76"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="67"/>
       <c r="C24" s="15" t="s">
         <v>257</v>
       </c>
@@ -3478,10 +3612,10 @@
       </c>
     </row>
     <row r="26" spans="1:24" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="64">
+      <c r="A26" s="66">
         <v>7</v>
       </c>
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="67" t="s">
         <v>247</v>
       </c>
       <c r="C26" s="15" t="s">
@@ -3492,8 +3626,8 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="64"/>
-      <c r="B27" s="76"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="67"/>
       <c r="C27" s="15" t="s">
         <v>244</v>
       </c>
@@ -3515,8 +3649,8 @@
       <c r="W27" s="31"/>
     </row>
     <row r="28" spans="1:24" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="64"/>
-      <c r="B28" s="76"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="67"/>
       <c r="C28" s="15" t="s">
         <v>242</v>
       </c>
@@ -3525,8 +3659,8 @@
       </c>
     </row>
     <row r="29" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="64"/>
-      <c r="B29" s="76"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="67"/>
       <c r="C29" s="15" t="s">
         <v>240</v>
       </c>
@@ -3537,10 +3671,10 @@
       <c r="X29" s="30"/>
     </row>
     <row r="30" spans="1:24" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="66" t="s">
         <v>238</v>
       </c>
-      <c r="B30" s="76" t="s">
+      <c r="B30" s="67" t="s">
         <v>237</v>
       </c>
       <c r="C30" s="13" t="s">
@@ -3554,8 +3688,8 @@
       <c r="X30" s="30"/>
     </row>
     <row r="31" spans="1:24" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="64"/>
-      <c r="B31" s="76"/>
+      <c r="A31" s="66"/>
+      <c r="B31" s="67"/>
       <c r="C31" s="13" t="s">
         <v>235</v>
       </c>
@@ -3565,8 +3699,8 @@
       <c r="X31" s="30"/>
     </row>
     <row r="32" spans="1:24" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="64"/>
-      <c r="B32" s="76"/>
+      <c r="A32" s="66"/>
+      <c r="B32" s="67"/>
       <c r="C32" s="13" t="s">
         <v>234</v>
       </c>
@@ -3578,8 +3712,8 @@
       <c r="X32" s="30"/>
     </row>
     <row r="33" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="64"/>
-      <c r="B33" s="76"/>
+      <c r="A33" s="66"/>
+      <c r="B33" s="67"/>
       <c r="C33" s="13" t="s">
         <v>233</v>
       </c>
@@ -3590,8 +3724,8 @@
       <c r="R33" s="29"/>
     </row>
     <row r="34" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="64"/>
-      <c r="B34" s="76"/>
+      <c r="A34" s="66"/>
+      <c r="B34" s="67"/>
       <c r="C34" s="13" t="s">
         <v>232</v>
       </c>
@@ -3600,8 +3734,8 @@
       </c>
     </row>
     <row r="35" spans="1:21" ht="51" x14ac:dyDescent="0.2">
-      <c r="A35" s="64"/>
-      <c r="B35" s="76"/>
+      <c r="A35" s="66"/>
+      <c r="B35" s="67"/>
       <c r="C35" s="15" t="s">
         <v>231</v>
       </c>
@@ -3688,10 +3822,10 @@
       </c>
     </row>
     <row r="39" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="64">
+      <c r="A39" s="66">
         <v>10</v>
       </c>
-      <c r="B39" s="76" t="s">
+      <c r="B39" s="67" t="s">
         <v>215</v>
       </c>
       <c r="C39" s="13" t="s">
@@ -3702,8 +3836,8 @@
       </c>
     </row>
     <row r="40" spans="1:21" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="64"/>
-      <c r="B40" s="76"/>
+      <c r="A40" s="66"/>
+      <c r="B40" s="67"/>
       <c r="C40" s="13" t="s">
         <v>212</v>
       </c>
@@ -3712,8 +3846,8 @@
       </c>
     </row>
     <row r="41" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="64"/>
-      <c r="B41" s="76"/>
+      <c r="A41" s="66"/>
+      <c r="B41" s="67"/>
       <c r="C41" s="13" t="s">
         <v>210</v>
       </c>
@@ -3722,8 +3856,8 @@
       </c>
     </row>
     <row r="42" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="64"/>
-      <c r="B42" s="76"/>
+      <c r="A42" s="66"/>
+      <c r="B42" s="67"/>
       <c r="C42" s="13" t="s">
         <v>209</v>
       </c>
@@ -3732,8 +3866,8 @@
       </c>
     </row>
     <row r="43" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="64"/>
-      <c r="B43" s="76"/>
+      <c r="A43" s="66"/>
+      <c r="B43" s="67"/>
       <c r="C43" s="13" t="s">
         <v>207</v>
       </c>
@@ -3742,8 +3876,8 @@
       </c>
     </row>
     <row r="44" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="64"/>
-      <c r="B44" s="76"/>
+      <c r="A44" s="66"/>
+      <c r="B44" s="67"/>
       <c r="C44" s="13" t="s">
         <v>205</v>
       </c>
@@ -3753,8 +3887,8 @@
       <c r="F44" s="12"/>
     </row>
     <row r="45" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="64"/>
-      <c r="B45" s="76"/>
+      <c r="A45" s="66"/>
+      <c r="B45" s="67"/>
       <c r="C45" s="13" t="s">
         <v>203</v>
       </c>
@@ -3763,8 +3897,8 @@
       </c>
     </row>
     <row r="46" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="64"/>
-      <c r="B46" s="76"/>
+      <c r="A46" s="66"/>
+      <c r="B46" s="67"/>
       <c r="C46" s="13" t="s">
         <v>201</v>
       </c>
@@ -3773,8 +3907,8 @@
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A47" s="98"/>
-      <c r="B47" s="73" t="s">
+      <c r="A47" s="95"/>
+      <c r="B47" s="82" t="s">
         <v>351</v>
       </c>
       <c r="C47" s="45" t="s">
@@ -3785,8 +3919,8 @@
       </c>
     </row>
     <row r="48" spans="1:21" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="99"/>
-      <c r="B48" s="74"/>
+      <c r="A48" s="96"/>
+      <c r="B48" s="83"/>
       <c r="C48" s="45" t="s">
         <v>355</v>
       </c>
@@ -3795,8 +3929,8 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="99"/>
-      <c r="B49" s="74"/>
+      <c r="A49" s="96"/>
+      <c r="B49" s="83"/>
       <c r="C49" s="45" t="s">
         <v>356</v>
       </c>
@@ -3805,8 +3939,8 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="99"/>
-      <c r="B50" s="74"/>
+      <c r="A50" s="96"/>
+      <c r="B50" s="83"/>
       <c r="C50" s="45" t="s">
         <v>357</v>
       </c>
@@ -3815,8 +3949,8 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="112" x14ac:dyDescent="0.2">
-      <c r="A51" s="100"/>
-      <c r="B51" s="75"/>
+      <c r="A51" s="97"/>
+      <c r="B51" s="84"/>
       <c r="C51" s="63" t="s">
         <v>364</v>
       </c>
@@ -3900,10 +4034,10 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A56" s="64">
+      <c r="A56" s="66">
         <v>13</v>
       </c>
-      <c r="B56" s="76" t="s">
+      <c r="B56" s="67" t="s">
         <v>184</v>
       </c>
       <c r="C56" s="13" t="s">
@@ -3914,8 +4048,8 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="64"/>
-      <c r="B57" s="76"/>
+      <c r="A57" s="66"/>
+      <c r="B57" s="67"/>
       <c r="C57" s="13" t="s">
         <v>182</v>
       </c>
@@ -3924,8 +4058,8 @@
       </c>
     </row>
     <row r="58" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A58" s="64"/>
-      <c r="B58" s="76"/>
+      <c r="A58" s="66"/>
+      <c r="B58" s="67"/>
       <c r="C58" s="13" t="s">
         <v>180</v>
       </c>
@@ -3934,8 +4068,8 @@
       </c>
     </row>
     <row r="59" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A59" s="64"/>
-      <c r="B59" s="76"/>
+      <c r="A59" s="66"/>
+      <c r="B59" s="67"/>
       <c r="C59" s="13" t="s">
         <v>178</v>
       </c>
@@ -3944,8 +4078,8 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A60" s="64"/>
-      <c r="B60" s="76"/>
+      <c r="A60" s="66"/>
+      <c r="B60" s="67"/>
       <c r="C60" s="15" t="s">
         <v>176</v>
       </c>
@@ -3980,10 +4114,10 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="64">
+      <c r="A62" s="66">
         <v>15</v>
       </c>
-      <c r="B62" s="76" t="s">
+      <c r="B62" s="67" t="s">
         <v>169</v>
       </c>
       <c r="C62" s="13" t="s">
@@ -3994,8 +4128,8 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A63" s="64"/>
-      <c r="B63" s="76"/>
+      <c r="A63" s="66"/>
+      <c r="B63" s="67"/>
       <c r="C63" s="13" t="s">
         <v>167</v>
       </c>
@@ -4004,8 +4138,8 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A64" s="64"/>
-      <c r="B64" s="76"/>
+      <c r="A64" s="66"/>
+      <c r="B64" s="67"/>
       <c r="C64" s="13" t="s">
         <v>165</v>
       </c>
@@ -4014,8 +4148,8 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A65" s="64"/>
-      <c r="B65" s="76"/>
+      <c r="A65" s="66"/>
+      <c r="B65" s="67"/>
       <c r="C65" s="15" t="s">
         <v>163</v>
       </c>
@@ -4047,10 +4181,10 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="69">
+      <c r="A67" s="90">
         <v>17</v>
       </c>
-      <c r="B67" s="76" t="s">
+      <c r="B67" s="67" t="s">
         <v>157</v>
       </c>
       <c r="C67" s="13" t="s">
@@ -4061,8 +4195,8 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="69"/>
-      <c r="B68" s="76"/>
+      <c r="A68" s="90"/>
+      <c r="B68" s="67"/>
       <c r="C68" s="13" t="s">
         <v>155</v>
       </c>
@@ -4071,8 +4205,8 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="69"/>
-      <c r="B69" s="76"/>
+      <c r="A69" s="90"/>
+      <c r="B69" s="67"/>
       <c r="C69" s="13" t="s">
         <v>154</v>
       </c>
@@ -4081,10 +4215,10 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="70" t="s">
+      <c r="A70" s="98" t="s">
         <v>314</v>
       </c>
-      <c r="B70" s="79" t="s">
+      <c r="B70" s="87" t="s">
         <v>352</v>
       </c>
       <c r="C70" s="45" t="s">
@@ -4095,8 +4229,8 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A71" s="71"/>
-      <c r="B71" s="80"/>
+      <c r="A71" s="99"/>
+      <c r="B71" s="88"/>
       <c r="C71" s="45" t="s">
         <v>312</v>
       </c>
@@ -4105,8 +4239,8 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A72" s="71"/>
-      <c r="B72" s="80"/>
+      <c r="A72" s="99"/>
+      <c r="B72" s="88"/>
       <c r="C72" s="45" t="s">
         <v>313</v>
       </c>
@@ -4117,8 +4251,8 @@
       <c r="F72" s="38"/>
     </row>
     <row r="73" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A73" s="72"/>
-      <c r="B73" s="81"/>
+      <c r="A73" s="100"/>
+      <c r="B73" s="89"/>
       <c r="C73" s="47" t="s">
         <v>310</v>
       </c>
@@ -4151,10 +4285,10 @@
       <c r="F74" s="38"/>
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="64">
+      <c r="A75" s="66">
         <v>18</v>
       </c>
-      <c r="B75" s="76" t="s">
+      <c r="B75" s="67" t="s">
         <v>152</v>
       </c>
       <c r="C75" s="15" t="s">
@@ -4165,8 +4299,8 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="64"/>
-      <c r="B76" s="76"/>
+      <c r="A76" s="66"/>
+      <c r="B76" s="67"/>
       <c r="C76" s="15" t="s">
         <v>149</v>
       </c>
@@ -4175,8 +4309,8 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="64"/>
-      <c r="B77" s="76"/>
+      <c r="A77" s="66"/>
+      <c r="B77" s="67"/>
       <c r="C77" s="15" t="s">
         <v>147</v>
       </c>
@@ -4185,10 +4319,10 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="64">
+      <c r="A78" s="101">
         <v>19</v>
       </c>
-      <c r="B78" s="76" t="s">
+      <c r="B78" s="67" t="s">
         <v>145</v>
       </c>
       <c r="C78" s="13" t="s">
@@ -4199,8 +4333,8 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="64"/>
-      <c r="B79" s="76"/>
+      <c r="A79" s="101"/>
+      <c r="B79" s="67"/>
       <c r="C79" s="13" t="s">
         <v>143</v>
       </c>
@@ -4209,8 +4343,8 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="64"/>
-      <c r="B80" s="76"/>
+      <c r="A80" s="101"/>
+      <c r="B80" s="67"/>
       <c r="C80" s="13" t="s">
         <v>142</v>
       </c>
@@ -4219,8 +4353,8 @@
       </c>
     </row>
     <row r="81" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="64"/>
-      <c r="B81" s="76"/>
+      <c r="A81" s="101"/>
+      <c r="B81" s="67"/>
       <c r="C81" s="15" t="s">
         <v>141</v>
       </c>
@@ -4252,10 +4386,10 @@
       </c>
     </row>
     <row r="83" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A83" s="64">
+      <c r="A83" s="66">
         <v>21</v>
       </c>
-      <c r="B83" s="76" t="s">
+      <c r="B83" s="67" t="s">
         <v>136</v>
       </c>
       <c r="C83" s="52" t="s">
@@ -4266,8 +4400,8 @@
       </c>
     </row>
     <row r="84" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A84" s="64"/>
-      <c r="B84" s="76"/>
+      <c r="A84" s="66"/>
+      <c r="B84" s="67"/>
       <c r="C84" s="52" t="s">
         <v>348</v>
       </c>
@@ -4276,8 +4410,8 @@
       </c>
     </row>
     <row r="85" spans="1:10" ht="85" x14ac:dyDescent="0.2">
-      <c r="A85" s="64"/>
-      <c r="B85" s="76"/>
+      <c r="A85" s="66"/>
+      <c r="B85" s="67"/>
       <c r="C85" s="51" t="s">
         <v>367</v>
       </c>
@@ -4292,10 +4426,10 @@
       </c>
     </row>
     <row r="86" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="90">
+      <c r="A86" s="68">
         <v>22</v>
       </c>
-      <c r="B86" s="76" t="s">
+      <c r="B86" s="67" t="s">
         <v>133</v>
       </c>
       <c r="C86" s="52" t="s">
@@ -4306,8 +4440,8 @@
       </c>
     </row>
     <row r="87" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" s="91"/>
-      <c r="B87" s="76"/>
+      <c r="A87" s="69"/>
+      <c r="B87" s="67"/>
       <c r="C87" s="52" t="s">
         <v>337</v>
       </c>
@@ -4316,8 +4450,8 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A88" s="92"/>
-      <c r="B88" s="76"/>
+      <c r="A88" s="70"/>
+      <c r="B88" s="67"/>
       <c r="C88" s="51" t="s">
         <v>368</v>
       </c>
@@ -4332,10 +4466,10 @@
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" s="64">
+      <c r="A89" s="66">
         <v>23</v>
       </c>
-      <c r="B89" s="76" t="s">
+      <c r="B89" s="67" t="s">
         <v>130</v>
       </c>
       <c r="C89" s="44" t="s">
@@ -4364,8 +4498,8 @@
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" s="64"/>
-      <c r="B90" s="76"/>
+      <c r="A90" s="66"/>
+      <c r="B90" s="67"/>
       <c r="C90" s="44" t="s">
         <v>128</v>
       </c>
@@ -4377,8 +4511,8 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A91" s="64"/>
-      <c r="B91" s="76"/>
+      <c r="A91" s="66"/>
+      <c r="B91" s="67"/>
       <c r="C91" s="47" t="s">
         <v>361</v>
       </c>
@@ -4393,8 +4527,8 @@
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" s="64"/>
-      <c r="B92" s="76"/>
+      <c r="A92" s="66"/>
+      <c r="B92" s="67"/>
       <c r="C92" s="44" t="s">
         <v>127</v>
       </c>
@@ -4421,8 +4555,8 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="64"/>
-      <c r="B93" s="76"/>
+      <c r="A93" s="66"/>
+      <c r="B93" s="67"/>
       <c r="C93" s="44" t="s">
         <v>125</v>
       </c>
@@ -4434,8 +4568,8 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A94" s="64"/>
-      <c r="B94" s="76"/>
+      <c r="A94" s="66"/>
+      <c r="B94" s="67"/>
       <c r="C94" s="47" t="s">
         <v>126</v>
       </c>
@@ -4450,8 +4584,8 @@
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" s="64"/>
-      <c r="B95" s="76"/>
+      <c r="A95" s="66"/>
+      <c r="B95" s="67"/>
       <c r="C95" s="44" t="s">
         <v>124</v>
       </c>
@@ -4478,8 +4612,8 @@
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" s="64"/>
-      <c r="B96" s="76"/>
+      <c r="A96" s="66"/>
+      <c r="B96" s="67"/>
       <c r="C96" s="44" t="s">
         <v>122</v>
       </c>
@@ -4491,8 +4625,8 @@
       </c>
     </row>
     <row r="97" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A97" s="64"/>
-      <c r="B97" s="76"/>
+      <c r="A97" s="66"/>
+      <c r="B97" s="67"/>
       <c r="C97" s="47" t="s">
         <v>123</v>
       </c>
@@ -4507,8 +4641,8 @@
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="64"/>
-      <c r="B98" s="76"/>
+      <c r="A98" s="66"/>
+      <c r="B98" s="67"/>
       <c r="C98" s="44" t="s">
         <v>121</v>
       </c>
@@ -4535,8 +4669,8 @@
       </c>
     </row>
     <row r="99" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="64"/>
-      <c r="B99" s="76"/>
+      <c r="A99" s="66"/>
+      <c r="B99" s="67"/>
       <c r="C99" s="44" t="s">
         <v>119</v>
       </c>
@@ -4548,8 +4682,8 @@
       </c>
     </row>
     <row r="100" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A100" s="64"/>
-      <c r="B100" s="76"/>
+      <c r="A100" s="66"/>
+      <c r="B100" s="67"/>
       <c r="C100" s="47" t="s">
         <v>120</v>
       </c>
@@ -4564,10 +4698,10 @@
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101" s="66">
+      <c r="A101" s="91">
         <v>24</v>
       </c>
-      <c r="B101" s="87" t="s">
+      <c r="B101" s="79" t="s">
         <v>118</v>
       </c>
       <c r="C101" s="44" t="s">
@@ -4596,8 +4730,8 @@
       </c>
     </row>
     <row r="102" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="67"/>
-      <c r="B102" s="88"/>
+      <c r="A102" s="92"/>
+      <c r="B102" s="80"/>
       <c r="C102" s="44" t="s">
         <v>115</v>
       </c>
@@ -4609,8 +4743,8 @@
       </c>
     </row>
     <row r="103" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="68"/>
-      <c r="B103" s="89"/>
+      <c r="A103" s="93"/>
+      <c r="B103" s="81"/>
       <c r="C103" s="47" t="s">
         <v>116</v>
       </c>
@@ -4625,10 +4759,10 @@
       </c>
     </row>
     <row r="104" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="66">
+      <c r="A104" s="91">
         <v>25</v>
       </c>
-      <c r="B104" s="93" t="s">
+      <c r="B104" s="71" t="s">
         <v>114</v>
       </c>
       <c r="C104" s="44" t="s">
@@ -4657,8 +4791,8 @@
       </c>
     </row>
     <row r="105" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="67"/>
-      <c r="B105" s="94"/>
+      <c r="A105" s="92"/>
+      <c r="B105" s="72"/>
       <c r="C105" s="44" t="s">
         <v>111</v>
       </c>
@@ -4670,8 +4804,8 @@
       </c>
     </row>
     <row r="106" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="68"/>
-      <c r="B106" s="95"/>
+      <c r="A106" s="93"/>
+      <c r="B106" s="73"/>
       <c r="C106" s="47" t="s">
         <v>112</v>
       </c>
@@ -4686,10 +4820,10 @@
       </c>
     </row>
     <row r="107" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="66">
+      <c r="A107" s="91">
         <v>26</v>
       </c>
-      <c r="B107" s="93" t="s">
+      <c r="B107" s="71" t="s">
         <v>110</v>
       </c>
       <c r="C107" s="44" t="s">
@@ -4718,8 +4852,8 @@
       </c>
     </row>
     <row r="108" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="67"/>
-      <c r="B108" s="94"/>
+      <c r="A108" s="92"/>
+      <c r="B108" s="72"/>
       <c r="C108" s="44" t="s">
         <v>107</v>
       </c>
@@ -4731,8 +4865,8 @@
       </c>
     </row>
     <row r="109" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="68"/>
-      <c r="B109" s="95"/>
+      <c r="A109" s="93"/>
+      <c r="B109" s="73"/>
       <c r="C109" s="47" t="s">
         <v>108</v>
       </c>
@@ -4747,10 +4881,10 @@
       </c>
     </row>
     <row r="110" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="66">
+      <c r="A110" s="91">
         <v>27</v>
       </c>
-      <c r="B110" s="93" t="s">
+      <c r="B110" s="71" t="s">
         <v>106</v>
       </c>
       <c r="C110" s="44" t="s">
@@ -4779,8 +4913,8 @@
       </c>
     </row>
     <row r="111" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="67"/>
-      <c r="B111" s="94"/>
+      <c r="A111" s="92"/>
+      <c r="B111" s="72"/>
       <c r="C111" s="44" t="s">
         <v>103</v>
       </c>
@@ -4792,8 +4926,8 @@
       </c>
     </row>
     <row r="112" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="68"/>
-      <c r="B112" s="95"/>
+      <c r="A112" s="93"/>
+      <c r="B112" s="73"/>
       <c r="C112" s="47" t="s">
         <v>104</v>
       </c>
@@ -4808,10 +4942,10 @@
       </c>
     </row>
     <row r="113" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="66">
+      <c r="A113" s="91">
         <v>28</v>
       </c>
-      <c r="B113" s="93" t="s">
+      <c r="B113" s="71" t="s">
         <v>102</v>
       </c>
       <c r="C113" s="44" t="s">
@@ -4840,8 +4974,8 @@
       </c>
     </row>
     <row r="114" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="67"/>
-      <c r="B114" s="94"/>
+      <c r="A114" s="92"/>
+      <c r="B114" s="72"/>
       <c r="C114" s="44" t="s">
         <v>99</v>
       </c>
@@ -4853,8 +4987,8 @@
       </c>
     </row>
     <row r="115" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="68"/>
-      <c r="B115" s="95"/>
+      <c r="A115" s="93"/>
+      <c r="B115" s="73"/>
       <c r="C115" s="47" t="s">
         <v>100</v>
       </c>
@@ -4869,10 +5003,10 @@
       </c>
     </row>
     <row r="116" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A116" s="64">
+      <c r="A116" s="66">
         <v>29</v>
       </c>
-      <c r="B116" s="76" t="s">
+      <c r="B116" s="67" t="s">
         <v>98</v>
       </c>
       <c r="C116" s="13" t="s">
@@ -4883,8 +5017,8 @@
       </c>
     </row>
     <row r="117" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A117" s="64"/>
-      <c r="B117" s="76"/>
+      <c r="A117" s="66"/>
+      <c r="B117" s="67"/>
       <c r="C117" s="13" t="s">
         <v>96</v>
       </c>
@@ -4893,8 +5027,8 @@
       </c>
     </row>
     <row r="118" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A118" s="64"/>
-      <c r="B118" s="76"/>
+      <c r="A118" s="66"/>
+      <c r="B118" s="67"/>
       <c r="C118" s="13" t="s">
         <v>94</v>
       </c>
@@ -4903,8 +5037,8 @@
       </c>
     </row>
     <row r="119" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A119" s="64"/>
-      <c r="B119" s="76"/>
+      <c r="A119" s="66"/>
+      <c r="B119" s="67"/>
       <c r="C119" s="15" t="s">
         <v>92</v>
       </c>
@@ -4919,10 +5053,10 @@
       </c>
     </row>
     <row r="120" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="69">
+      <c r="A120" s="90">
         <v>30</v>
       </c>
-      <c r="B120" s="86" t="s">
+      <c r="B120" s="78" t="s">
         <v>89</v>
       </c>
       <c r="C120" s="13" t="s">
@@ -4933,8 +5067,8 @@
       </c>
     </row>
     <row r="121" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="69"/>
-      <c r="B121" s="86"/>
+      <c r="A121" s="90"/>
+      <c r="B121" s="78"/>
       <c r="C121" s="13" t="s">
         <v>87</v>
       </c>
@@ -4943,8 +5077,8 @@
       </c>
     </row>
     <row r="122" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="69"/>
-      <c r="B122" s="86"/>
+      <c r="A122" s="90"/>
+      <c r="B122" s="78"/>
       <c r="C122" s="13" t="s">
         <v>85</v>
       </c>
@@ -4953,8 +5087,8 @@
       </c>
     </row>
     <row r="123" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A123" s="69"/>
-      <c r="B123" s="86"/>
+      <c r="A123" s="90"/>
+      <c r="B123" s="78"/>
       <c r="C123" s="13" t="s">
         <v>83</v>
       </c>
@@ -4963,8 +5097,8 @@
       </c>
     </row>
     <row r="124" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A124" s="69"/>
-      <c r="B124" s="86"/>
+      <c r="A124" s="90"/>
+      <c r="B124" s="78"/>
       <c r="C124" s="15" t="s">
         <v>81</v>
       </c>
@@ -4982,10 +5116,10 @@
       </c>
     </row>
     <row r="125" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A125" s="90">
+      <c r="A125" s="68">
         <v>31</v>
       </c>
-      <c r="B125" s="76" t="s">
+      <c r="B125" s="67" t="s">
         <v>76</v>
       </c>
       <c r="C125" s="52" t="s">
@@ -4996,8 +5130,8 @@
       </c>
     </row>
     <row r="126" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="91"/>
-      <c r="B126" s="76"/>
+      <c r="A126" s="69"/>
+      <c r="B126" s="67"/>
       <c r="C126" s="52" t="s">
         <v>338</v>
       </c>
@@ -5006,8 +5140,8 @@
       </c>
     </row>
     <row r="127" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" s="91"/>
-      <c r="B127" s="76"/>
+      <c r="A127" s="69"/>
+      <c r="B127" s="67"/>
       <c r="C127" s="52" t="s">
         <v>339</v>
       </c>
@@ -5016,8 +5150,8 @@
       </c>
     </row>
     <row r="128" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="92"/>
-      <c r="B128" s="76"/>
+      <c r="A128" s="70"/>
+      <c r="B128" s="67"/>
       <c r="C128" s="51" t="s">
         <v>366</v>
       </c>
@@ -5032,10 +5166,10 @@
       </c>
     </row>
     <row r="129" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="64">
+      <c r="A129" s="90">
         <v>32</v>
       </c>
-      <c r="B129" s="76" t="s">
+      <c r="B129" s="67" t="s">
         <v>70</v>
       </c>
       <c r="C129" s="13" t="s">
@@ -5046,8 +5180,8 @@
       </c>
     </row>
     <row r="130" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A130" s="64"/>
-      <c r="B130" s="76"/>
+      <c r="A130" s="90"/>
+      <c r="B130" s="67"/>
       <c r="C130" s="13" t="s">
         <v>68</v>
       </c>
@@ -5056,8 +5190,8 @@
       </c>
     </row>
     <row r="131" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" s="64"/>
-      <c r="B131" s="76"/>
+      <c r="A131" s="90"/>
+      <c r="B131" s="67"/>
       <c r="C131" s="13" t="s">
         <v>66</v>
       </c>
@@ -5066,8 +5200,8 @@
       </c>
     </row>
     <row r="132" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" s="64"/>
-      <c r="B132" s="76"/>
+      <c r="A132" s="90"/>
+      <c r="B132" s="67"/>
       <c r="C132" s="13" t="s">
         <v>64</v>
       </c>
@@ -5076,8 +5210,8 @@
       </c>
     </row>
     <row r="133" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A133" s="64"/>
-      <c r="B133" s="76"/>
+      <c r="A133" s="90"/>
+      <c r="B133" s="67"/>
       <c r="C133" s="15" t="s">
         <v>63</v>
       </c>
@@ -5112,10 +5246,10 @@
       </c>
     </row>
     <row r="135" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A135" s="64">
+      <c r="A135" s="66">
         <v>34</v>
       </c>
-      <c r="B135" s="76" t="s">
+      <c r="B135" s="67" t="s">
         <v>55</v>
       </c>
       <c r="C135" s="13" t="s">
@@ -5126,8 +5260,8 @@
       </c>
     </row>
     <row r="136" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A136" s="64"/>
-      <c r="B136" s="76"/>
+      <c r="A136" s="66"/>
+      <c r="B136" s="67"/>
       <c r="C136" s="13" t="s">
         <v>53</v>
       </c>
@@ -5136,8 +5270,8 @@
       </c>
     </row>
     <row r="137" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A137" s="64"/>
-      <c r="B137" s="76"/>
+      <c r="A137" s="66"/>
+      <c r="B137" s="67"/>
       <c r="C137" s="13" t="s">
         <v>51</v>
       </c>
@@ -5146,8 +5280,8 @@
       </c>
     </row>
     <row r="138" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A138" s="64"/>
-      <c r="B138" s="76"/>
+      <c r="A138" s="66"/>
+      <c r="B138" s="67"/>
       <c r="C138" s="15" t="s">
         <v>49</v>
       </c>
@@ -5162,10 +5296,10 @@
       </c>
     </row>
     <row r="139" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A139" s="64">
+      <c r="A139" s="66">
         <v>35</v>
       </c>
-      <c r="B139" s="76" t="s">
+      <c r="B139" s="67" t="s">
         <v>46</v>
       </c>
       <c r="C139" s="13" t="s">
@@ -5176,8 +5310,8 @@
       </c>
     </row>
     <row r="140" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A140" s="64"/>
-      <c r="B140" s="76"/>
+      <c r="A140" s="66"/>
+      <c r="B140" s="67"/>
       <c r="C140" s="13" t="s">
         <v>44</v>
       </c>
@@ -5186,8 +5320,8 @@
       </c>
     </row>
     <row r="141" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A141" s="64"/>
-      <c r="B141" s="76"/>
+      <c r="A141" s="66"/>
+      <c r="B141" s="67"/>
       <c r="C141" s="13" t="s">
         <v>42</v>
       </c>
@@ -5196,8 +5330,8 @@
       </c>
     </row>
     <row r="142" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A142" s="64"/>
-      <c r="B142" s="76"/>
+      <c r="A142" s="66"/>
+      <c r="B142" s="67"/>
       <c r="C142" s="15" t="s">
         <v>40</v>
       </c>
@@ -5212,10 +5346,10 @@
       </c>
     </row>
     <row r="143" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A143" s="69">
+      <c r="A143" s="90">
         <v>36</v>
       </c>
-      <c r="B143" s="76" t="s">
+      <c r="B143" s="67" t="s">
         <v>36</v>
       </c>
       <c r="C143" s="16" t="s">
@@ -5226,8 +5360,8 @@
       </c>
     </row>
     <row r="144" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A144" s="69"/>
-      <c r="B144" s="76"/>
+      <c r="A144" s="90"/>
+      <c r="B144" s="67"/>
       <c r="C144" s="16" t="s">
         <v>34</v>
       </c>
@@ -5236,8 +5370,8 @@
       </c>
     </row>
     <row r="145" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A145" s="69"/>
-      <c r="B145" s="76"/>
+      <c r="A145" s="90"/>
+      <c r="B145" s="67"/>
       <c r="C145" s="16" t="s">
         <v>32</v>
       </c>
@@ -5246,8 +5380,8 @@
       </c>
     </row>
     <row r="146" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A146" s="69"/>
-      <c r="B146" s="76"/>
+      <c r="A146" s="90"/>
+      <c r="B146" s="67"/>
       <c r="C146" s="11" t="s">
         <v>30</v>
       </c>
@@ -5260,10 +5394,10 @@
       <c r="F146" s="14"/>
     </row>
     <row r="147" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A147" s="69">
+      <c r="A147" s="90">
         <v>37</v>
       </c>
-      <c r="B147" s="76" t="s">
+      <c r="B147" s="67" t="s">
         <v>28</v>
       </c>
       <c r="C147" s="15" t="s">
@@ -5274,8 +5408,8 @@
       </c>
     </row>
     <row r="148" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A148" s="69"/>
-      <c r="B148" s="76"/>
+      <c r="A148" s="90"/>
+      <c r="B148" s="67"/>
       <c r="C148" s="15" t="s">
         <v>25</v>
       </c>
@@ -5284,8 +5418,8 @@
       </c>
     </row>
     <row r="149" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A149" s="69"/>
-      <c r="B149" s="76"/>
+      <c r="A149" s="90"/>
+      <c r="B149" s="67"/>
       <c r="C149" s="15" t="s">
         <v>23</v>
       </c>
@@ -5294,10 +5428,10 @@
       </c>
     </row>
     <row r="150" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A150" s="64">
+      <c r="A150" s="66">
         <v>38</v>
       </c>
-      <c r="B150" s="76" t="s">
+      <c r="B150" s="67" t="s">
         <v>21</v>
       </c>
       <c r="C150" s="13" t="s">
@@ -5308,8 +5442,8 @@
       </c>
     </row>
     <row r="151" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A151" s="64"/>
-      <c r="B151" s="76"/>
+      <c r="A151" s="66"/>
+      <c r="B151" s="67"/>
       <c r="C151" s="13" t="s">
         <v>19</v>
       </c>
@@ -5318,8 +5452,8 @@
       </c>
     </row>
     <row r="152" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A152" s="64"/>
-      <c r="B152" s="76"/>
+      <c r="A152" s="66"/>
+      <c r="B152" s="67"/>
       <c r="C152" s="13" t="s">
         <v>17</v>
       </c>
@@ -5328,8 +5462,8 @@
       </c>
     </row>
     <row r="153" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A153" s="64"/>
-      <c r="B153" s="76"/>
+      <c r="A153" s="66"/>
+      <c r="B153" s="67"/>
       <c r="C153" s="15" t="s">
         <v>15</v>
       </c>
@@ -5344,10 +5478,10 @@
       </c>
     </row>
     <row r="154" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A154" s="64">
+      <c r="A154" s="66">
         <v>39</v>
       </c>
-      <c r="B154" s="76" t="s">
+      <c r="B154" s="67" t="s">
         <v>11</v>
       </c>
       <c r="C154" s="13" t="s">
@@ -5358,8 +5492,8 @@
       </c>
     </row>
     <row r="155" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A155" s="64"/>
-      <c r="B155" s="76"/>
+      <c r="A155" s="66"/>
+      <c r="B155" s="67"/>
       <c r="C155" s="13" t="s">
         <v>9</v>
       </c>
@@ -5368,8 +5502,8 @@
       </c>
     </row>
     <row r="156" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A156" s="64"/>
-      <c r="B156" s="76"/>
+      <c r="A156" s="66"/>
+      <c r="B156" s="67"/>
       <c r="C156" s="13" t="s">
         <v>7</v>
       </c>
@@ -5378,8 +5512,8 @@
       </c>
     </row>
     <row r="157" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A157" s="64"/>
-      <c r="B157" s="76"/>
+      <c r="A157" s="66"/>
+      <c r="B157" s="67"/>
       <c r="C157" s="11" t="s">
         <v>5</v>
       </c>
@@ -54084,6 +54218,56 @@
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A39:A46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A135:A138"/>
+    <mergeCell ref="A139:A142"/>
+    <mergeCell ref="A143:A146"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="A120:A124"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B129:B133"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="B89:B100"/>
+    <mergeCell ref="B116:B119"/>
+    <mergeCell ref="B120:B124"/>
+    <mergeCell ref="B125:B128"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B39:B46"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B67:B69"/>
     <mergeCell ref="A83:A85"/>
     <mergeCell ref="B154:B157"/>
     <mergeCell ref="A86:A88"/>
@@ -54100,56 +54284,6 @@
     <mergeCell ref="A154:A157"/>
     <mergeCell ref="A89:A100"/>
     <mergeCell ref="A116:A119"/>
-    <mergeCell ref="D1:O1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B129:B133"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="B89:B100"/>
-    <mergeCell ref="B116:B119"/>
-    <mergeCell ref="B120:B124"/>
-    <mergeCell ref="B125:B128"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B39:B46"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="A120:A124"/>
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="A107:A109"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="A135:A138"/>
-    <mergeCell ref="A139:A142"/>
-    <mergeCell ref="A143:A146"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="A150:A153"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="A39:A46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A70:A73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
